--- a/manual_assessments/results_assessments.xlsx
+++ b/manual_assessments/results_assessments.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Silvia\Documents\Università\Magistrale\Radboud\progetto retrival\InformationRetrievalProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Silvia\Documents\Università\Magistrale\Radboud\progetto retrival\InformationRetrievalProject\manual_assessments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{80B99C02-3029-41E8-A951-6E1C210FE4B5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A04B8A73-277E-4A4F-83EE-30F64E1A88A5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10104" windowHeight="6636" xr2:uid="{E01FFA54-DD7F-4DC1-A66A-94C0974AC463}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="13">
   <si>
     <t>search_engine</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>TREC</t>
+  </si>
+  <si>
+    <t>SemSearch</t>
   </si>
 </sst>
 </file>
@@ -69,8 +72,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="0.0000"/>
-    <numFmt numFmtId="174" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -111,8 +114,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -428,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B13D3AF-87C5-4638-8CB7-31679E107E1A}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -666,6 +669,57 @@
         <v>2.4575029133700001E-2</v>
       </c>
     </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.67034136751621498</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.19649189726999999</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.22406515474399999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.44722042055292999</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.13836654629</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.19584932225500001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="2">
+        <v>-0.22312094696328399</v>
+      </c>
+      <c r="D16" s="2">
+        <v>-5.8125350983700003E-2</v>
+      </c>
+      <c r="E16" s="2">
+        <v>-2.82158324888E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
